--- a/data/raw/ClioLab_GFKF_Freal_nominal_Pk.xlsx
+++ b/data/raw/ClioLab_GFKF_Freal_nominal_Pk.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\capital_stock_paper\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB34348-1099-4C82-B8CC-1E776BF7918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDAD4B6-0940-43E2-98E7-191805A02134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="21504" windowHeight="11232" xr2:uid="{D2FE6D26-3AD8-461D-AD0C-B364DCC44360}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D2FE6D26-3AD8-461D-AD0C-B364DCC44360}"/>
   </bookViews>
   <sheets>
-    <sheet name="ig_nom ig_real Pk" sheetId="1" r:id="rId1"/>
+    <sheet name="ig_nom_ig_real_Pk" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
